--- a/data/myScreenerDB.xlsx
+++ b/data/myScreenerDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\quantvesting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FDAA44-4483-4F49-82AA-C283E5365697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A88232-DED8-44CC-B29A-B0F81C7BE1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{01165DD4-EAA5-43E4-AC79-44E94FC6D179}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$Q$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$Q$500</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="582">
   <si>
     <t>Name</t>
   </si>
@@ -32273,13 +32273,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6164CDE3-046E-43C8-9EE6-7E92FB2F1F9C}">
-  <dimension ref="A1:R501"/>
+  <dimension ref="A1:R533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -59863,62 +59866,1844 @@
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B501" s="3">
-        <v>308.2</v>
-      </c>
-      <c r="C501" s="3">
-        <v>46.33</v>
-      </c>
-      <c r="D501" s="3">
-        <v>22.79</v>
-      </c>
-      <c r="E501" s="3">
-        <v>13.54</v>
-      </c>
-      <c r="F501" s="3">
-        <v>3.65</v>
-      </c>
-      <c r="G501" s="3">
-        <v>9382.93</v>
-      </c>
-      <c r="H501" s="3">
-        <v>22.08</v>
-      </c>
-      <c r="I501" s="3">
-        <v>19.21</v>
-      </c>
-      <c r="J501" s="3">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="K501" s="3">
-        <v>19.09</v>
-      </c>
-      <c r="L501" s="3">
-        <v>20.09</v>
-      </c>
-      <c r="M501" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="N501" s="3">
-        <v>5.33</v>
-      </c>
-      <c r="O501" s="3">
-        <v>52.51</v>
-      </c>
-      <c r="P501" s="3">
-        <v>411.74</v>
-      </c>
-      <c r="Q501" s="3">
-        <v>68.180000000000007</v>
+        <v>484</v>
+      </c>
+      <c r="B501" s="6">
+        <v>13.76</v>
+      </c>
+      <c r="C501" s="6">
+        <v>946.51</v>
+      </c>
+      <c r="D501" s="6">
+        <v>6.14</v>
+      </c>
+      <c r="E501" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="F501" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="G501" s="6">
+        <v>9430.39</v>
+      </c>
+      <c r="H501" s="6">
+        <v>13.97</v>
+      </c>
+      <c r="I501" s="6">
+        <v>12.84</v>
+      </c>
+      <c r="J501" s="6">
+        <v>23.7</v>
+      </c>
+      <c r="K501" s="6">
+        <v>6.36</v>
+      </c>
+      <c r="L501" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="M501" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="N501" s="6">
+        <v>11.69</v>
+      </c>
+      <c r="O501" s="6">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="P501" s="6">
+        <v>1246.67</v>
+      </c>
+      <c r="Q501" s="6">
+        <v>73.430000000000007</v>
       </c>
       <c r="R501" t="s">
         <v>520</v>
       </c>
     </row>
+    <row r="502" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A502" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B502" s="6">
+        <v>616.65</v>
+      </c>
+      <c r="C502" s="6">
+        <v>104.39</v>
+      </c>
+      <c r="D502" s="6">
+        <v>24.17</v>
+      </c>
+      <c r="E502" s="6">
+        <v>24.98</v>
+      </c>
+      <c r="F502" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="G502" s="6">
+        <v>9171.77</v>
+      </c>
+      <c r="H502" s="6">
+        <v>11.74</v>
+      </c>
+      <c r="I502" s="6">
+        <v>11.15</v>
+      </c>
+      <c r="J502" s="6">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="K502" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="L502" s="6">
+        <v>7.64</v>
+      </c>
+      <c r="M502" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="N502" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="O502" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="P502" s="6">
+        <v>388.29</v>
+      </c>
+      <c r="Q502" s="6">
+        <v>72.89</v>
+      </c>
+      <c r="R502" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="503" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A503" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B503" s="6">
+        <v>280.95</v>
+      </c>
+      <c r="C503" s="6">
+        <v>127.8</v>
+      </c>
+      <c r="D503" s="6">
+        <v>72.14</v>
+      </c>
+      <c r="E503" s="6">
+        <v>3.89</v>
+      </c>
+      <c r="F503" s="6">
+        <v>12.37</v>
+      </c>
+      <c r="G503" s="6">
+        <v>8575.49</v>
+      </c>
+      <c r="H503" s="6">
+        <v>16.71</v>
+      </c>
+      <c r="I503" s="6">
+        <v>14.88</v>
+      </c>
+      <c r="J503" s="6">
+        <v>95.3</v>
+      </c>
+      <c r="K503" s="6">
+        <v>21.83</v>
+      </c>
+      <c r="L503" s="6">
+        <v>20.07</v>
+      </c>
+      <c r="M503" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="N503" s="6">
+        <v>25.57</v>
+      </c>
+      <c r="O503" s="6">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="P503" s="6">
+        <v>118.9</v>
+      </c>
+      <c r="Q503" s="6">
+        <v>122.71</v>
+      </c>
+      <c r="R503" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="504" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A504" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B504" s="6">
+        <v>1659.6</v>
+      </c>
+      <c r="C504" s="6">
+        <v>115.71</v>
+      </c>
+      <c r="D504" s="6">
+        <v>55.85</v>
+      </c>
+      <c r="E504" s="6">
+        <v>29.71</v>
+      </c>
+      <c r="F504" s="6">
+        <v>7.17</v>
+      </c>
+      <c r="G504" s="6">
+        <v>8504.4500000000007</v>
+      </c>
+      <c r="H504" s="6">
+        <v>15.79</v>
+      </c>
+      <c r="I504" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="J504" s="6">
+        <v>61.13</v>
+      </c>
+      <c r="K504" s="6">
+        <v>27.65</v>
+      </c>
+      <c r="L504" s="6">
+        <v>20.7</v>
+      </c>
+      <c r="M504" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="N504" s="6">
+        <v>9.67</v>
+      </c>
+      <c r="O504" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P504" s="6">
+        <v>152.81</v>
+      </c>
+      <c r="Q504" s="6">
+        <v>89.19</v>
+      </c>
+      <c r="R504" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="505" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A505" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B505" s="6">
+        <v>1649.7</v>
+      </c>
+      <c r="C505" s="6">
+        <v>187.87</v>
+      </c>
+      <c r="D505" s="6">
+        <v>47.25</v>
+      </c>
+      <c r="E505" s="6">
+        <v>34.92</v>
+      </c>
+      <c r="F505" s="6">
+        <v>6.42</v>
+      </c>
+      <c r="G505" s="6">
+        <v>8436.66</v>
+      </c>
+      <c r="H505" s="6">
+        <v>16.46</v>
+      </c>
+      <c r="I505" s="6">
+        <v>12.29</v>
+      </c>
+      <c r="J505" s="6">
+        <v>59.49</v>
+      </c>
+      <c r="K505" s="6">
+        <v>34.82</v>
+      </c>
+      <c r="L505" s="6">
+        <v>25.35</v>
+      </c>
+      <c r="M505" s="6">
+        <v>0</v>
+      </c>
+      <c r="N505" s="6">
+        <v>11.22</v>
+      </c>
+      <c r="O505" s="6">
+        <v>12.35</v>
+      </c>
+      <c r="P505" s="6">
+        <v>178.54</v>
+      </c>
+      <c r="Q505" s="6">
+        <v>103.01</v>
+      </c>
+      <c r="R505" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="506" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A506" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B506" s="6">
+        <v>730.15</v>
+      </c>
+      <c r="C506" s="6">
+        <v>177.68</v>
+      </c>
+      <c r="D506" s="6">
+        <v>93.06</v>
+      </c>
+      <c r="E506" s="6">
+        <v>12.81</v>
+      </c>
+      <c r="F506" s="6">
+        <v>2.64</v>
+      </c>
+      <c r="G506" s="6">
+        <v>7924.2</v>
+      </c>
+      <c r="H506" s="6">
+        <v>7.97</v>
+      </c>
+      <c r="I506" s="6">
+        <v>6.09</v>
+      </c>
+      <c r="J506" s="6">
+        <v>56.7</v>
+      </c>
+      <c r="K506" s="6">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="L506" s="6">
+        <v>13.66</v>
+      </c>
+      <c r="M506" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="N506" s="6">
+        <v>7.62</v>
+      </c>
+      <c r="O506" s="6">
+        <v>1.04</v>
+      </c>
+      <c r="P506" s="6">
+        <v>139.66999999999999</v>
+      </c>
+      <c r="Q506" s="6">
+        <v>106.57</v>
+      </c>
+      <c r="R506" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="507" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A507" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B507" s="6">
+        <v>5590</v>
+      </c>
+      <c r="C507" s="6">
+        <v>105.72</v>
+      </c>
+      <c r="D507" s="6">
+        <v>30.86</v>
+      </c>
+      <c r="E507" s="6">
+        <v>181.41</v>
+      </c>
+      <c r="F507" s="6">
+        <v>5.94</v>
+      </c>
+      <c r="G507" s="6">
+        <v>7277.21</v>
+      </c>
+      <c r="H507" s="6">
+        <v>24.62</v>
+      </c>
+      <c r="I507" s="6">
+        <v>19.05</v>
+      </c>
+      <c r="J507" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="K507" s="6">
+        <v>21.49</v>
+      </c>
+      <c r="L507" s="6">
+        <v>16.96</v>
+      </c>
+      <c r="M507" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N507" s="6">
+        <v>6.85</v>
+      </c>
+      <c r="O507" s="6">
+        <v>15.82</v>
+      </c>
+      <c r="P507" s="6">
+        <v>235.94</v>
+      </c>
+      <c r="Q507" s="6">
+        <v>64.28</v>
+      </c>
+      <c r="R507" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="508" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A508" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B508" s="6">
+        <v>486.8</v>
+      </c>
+      <c r="C508" s="6">
+        <v>330.72</v>
+      </c>
+      <c r="D508" s="6">
+        <v>12.55</v>
+      </c>
+      <c r="E508" s="6">
+        <v>38.67</v>
+      </c>
+      <c r="F508" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="G508" s="6">
+        <v>6540.56</v>
+      </c>
+      <c r="H508" s="6">
+        <v>38.28</v>
+      </c>
+      <c r="I508" s="6">
+        <v>31.71</v>
+      </c>
+      <c r="J508" s="6">
+        <v>25.33</v>
+      </c>
+      <c r="K508" s="6">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="L508" s="6">
+        <v>29.72</v>
+      </c>
+      <c r="M508" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="N508" s="6">
+        <v>31.37</v>
+      </c>
+      <c r="O508" s="6">
+        <v>86.79</v>
+      </c>
+      <c r="P508" s="6">
+        <v>520.16999999999996</v>
+      </c>
+      <c r="Q508" s="6">
+        <v>75.86</v>
+      </c>
+      <c r="R508" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="509" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A509" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B509" s="6">
+        <v>1030.3</v>
+      </c>
+      <c r="C509" s="6">
+        <v>131.87</v>
+      </c>
+      <c r="D509" s="6">
+        <v>18.84</v>
+      </c>
+      <c r="E509" s="6">
+        <v>55.71</v>
+      </c>
+      <c r="F509" s="6">
+        <v>2.76</v>
+      </c>
+      <c r="G509" s="6">
+        <v>6486.59</v>
+      </c>
+      <c r="H509" s="6">
+        <v>20.72</v>
+      </c>
+      <c r="I509" s="6">
+        <v>18.22</v>
+      </c>
+      <c r="J509" s="6">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="K509" s="6">
+        <v>24.44</v>
+      </c>
+      <c r="L509" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M509" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="N509" s="6">
+        <v>36.64</v>
+      </c>
+      <c r="O509" s="6">
+        <v>45.48</v>
+      </c>
+      <c r="P509" s="6">
+        <v>368.82</v>
+      </c>
+      <c r="Q509" s="6">
+        <v>-17.61</v>
+      </c>
+      <c r="R509" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="510" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A510" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B510" s="6">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C510" s="6">
+        <v>95.65</v>
+      </c>
+      <c r="D510" s="6">
+        <v>6.37</v>
+      </c>
+      <c r="E510" s="6">
+        <v>5.01</v>
+      </c>
+      <c r="F510" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G510" s="6">
+        <v>6224.23</v>
+      </c>
+      <c r="H510" s="6">
+        <v>11.09</v>
+      </c>
+      <c r="I510" s="6">
+        <v>26.66</v>
+      </c>
+      <c r="J510" s="6">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="K510" s="6">
+        <v>7.78</v>
+      </c>
+      <c r="L510" s="6">
+        <v>14.35</v>
+      </c>
+      <c r="M510" s="6">
+        <v>5.99</v>
+      </c>
+      <c r="N510" s="6">
+        <v>25.39</v>
+      </c>
+      <c r="O510" s="6">
+        <v>44.96</v>
+      </c>
+      <c r="P510" s="6">
+        <v>972.36</v>
+      </c>
+      <c r="Q510" s="6">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="R510" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="511" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A511" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B511" s="6">
+        <v>177.25</v>
+      </c>
+      <c r="C511" s="6">
+        <v>480.93</v>
+      </c>
+      <c r="D511" s="6">
+        <v>136.47999999999999</v>
+      </c>
+      <c r="E511" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F511" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="G511" s="6">
+        <v>5224.1499999999996</v>
+      </c>
+      <c r="H511" s="6">
+        <v>3.23</v>
+      </c>
+      <c r="I511" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J511" s="6">
+        <v>17.04</v>
+      </c>
+      <c r="K511" s="6">
+        <v>8.52</v>
+      </c>
+      <c r="L511" s="6">
+        <v>7.92</v>
+      </c>
+      <c r="M511" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N511" s="6">
+        <v>9.81</v>
+      </c>
+      <c r="O511" s="6">
+        <v>-23.66</v>
+      </c>
+      <c r="P511" s="6">
+        <v>38.28</v>
+      </c>
+      <c r="Q511" s="6">
+        <v>55.42</v>
+      </c>
+      <c r="R511" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="512" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A512" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B512" s="6">
+        <v>1083.5</v>
+      </c>
+      <c r="C512" s="6">
+        <v>209</v>
+      </c>
+      <c r="D512" s="6">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="E512" s="6">
+        <v>29.51</v>
+      </c>
+      <c r="F512" s="6">
+        <v>5.44</v>
+      </c>
+      <c r="G512" s="6">
+        <v>5165.5600000000004</v>
+      </c>
+      <c r="H512" s="6">
+        <v>23.18</v>
+      </c>
+      <c r="I512" s="6">
+        <v>17.52</v>
+      </c>
+      <c r="J512" s="6">
+        <v>54.1</v>
+      </c>
+      <c r="K512" s="6">
+        <v>23.83</v>
+      </c>
+      <c r="L512" s="6">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="M512" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="N512" s="6">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="O512" s="6">
+        <v>40.36</v>
+      </c>
+      <c r="P512" s="6">
+        <v>140.56</v>
+      </c>
+      <c r="Q512" s="6">
+        <v>61.95</v>
+      </c>
+      <c r="R512" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="513" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A513" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B513" s="6">
+        <v>322.45</v>
+      </c>
+      <c r="C513" s="6">
+        <v>117.83</v>
+      </c>
+      <c r="D513" s="6">
+        <v>20.81</v>
+      </c>
+      <c r="E513" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="F513" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="G513" s="6">
+        <v>4651.97</v>
+      </c>
+      <c r="H513" s="6">
+        <v>10.34</v>
+      </c>
+      <c r="I513" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="J513" s="6">
+        <v>19.37</v>
+      </c>
+      <c r="K513" s="6">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="L513" s="6">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="M513" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="N513" s="6">
+        <v>11.57</v>
+      </c>
+      <c r="O513" s="6">
+        <v>-2.64</v>
+      </c>
+      <c r="P513" s="6">
+        <v>223.48</v>
+      </c>
+      <c r="Q513" s="6">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="R513" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="514" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A514" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B514" s="6">
+        <v>324.95</v>
+      </c>
+      <c r="C514" s="6">
+        <v>138.38</v>
+      </c>
+      <c r="D514" s="6"/>
+      <c r="E514" s="6">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="F514" s="6">
+        <v>7.14</v>
+      </c>
+      <c r="G514" s="6">
+        <v>4607.8100000000004</v>
+      </c>
+      <c r="H514" s="6">
+        <v>8.48</v>
+      </c>
+      <c r="I514" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="J514" s="6">
+        <v>70.88</v>
+      </c>
+      <c r="K514" s="6">
+        <v>13.19</v>
+      </c>
+      <c r="L514" s="6">
+        <v>10.62</v>
+      </c>
+      <c r="M514" s="6">
+        <v>1.28</v>
+      </c>
+      <c r="N514" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="O514" s="6">
+        <v>-24.93</v>
+      </c>
+      <c r="P514" s="6">
+        <v>-65.31</v>
+      </c>
+      <c r="Q514" s="6">
+        <v>-63.51</v>
+      </c>
+      <c r="R514" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="515" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A515" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B515" s="6">
+        <v>1636.2</v>
+      </c>
+      <c r="C515" s="6">
+        <v>112.96</v>
+      </c>
+      <c r="D515" s="6">
+        <v>83.92</v>
+      </c>
+      <c r="E515" s="6">
+        <v>18.97</v>
+      </c>
+      <c r="F515" s="6">
+        <v>7.54</v>
+      </c>
+      <c r="G515" s="6">
+        <v>4439.24</v>
+      </c>
+      <c r="H515" s="6">
+        <v>-7.35</v>
+      </c>
+      <c r="I515" s="6">
+        <v>-7.81</v>
+      </c>
+      <c r="J515" s="6">
+        <v>122.89</v>
+      </c>
+      <c r="K515" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="L515" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="M515" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N515" s="6">
+        <v>-3.06</v>
+      </c>
+      <c r="O515" s="6"/>
+      <c r="P515" s="6">
+        <v>51.57</v>
+      </c>
+      <c r="Q515" s="6">
+        <v>2587.89</v>
+      </c>
+      <c r="R515" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="516" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A516" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B516" s="6">
+        <v>238.55</v>
+      </c>
+      <c r="C516" s="6">
+        <v>77.459999999999994</v>
+      </c>
+      <c r="D516" s="6">
+        <v>14.58</v>
+      </c>
+      <c r="E516" s="6">
+        <v>16.79</v>
+      </c>
+      <c r="F516" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="G516" s="6">
+        <v>4333.9799999999996</v>
+      </c>
+      <c r="H516" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="I516" s="6">
+        <v>15.21</v>
+      </c>
+      <c r="J516" s="6">
+        <v>22.21</v>
+      </c>
+      <c r="K516" s="6">
+        <v>12.04</v>
+      </c>
+      <c r="L516" s="6">
+        <v>14.53</v>
+      </c>
+      <c r="M516" s="6">
+        <v>3.38</v>
+      </c>
+      <c r="N516" s="6">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="O516" s="6">
+        <v>10.15</v>
+      </c>
+      <c r="P516" s="6">
+        <v>300.67</v>
+      </c>
+      <c r="Q516" s="6">
+        <v>-137.49</v>
+      </c>
+      <c r="R516" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="517" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A517" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B517" s="6">
+        <v>12.02</v>
+      </c>
+      <c r="C517" s="6">
+        <v>205.74</v>
+      </c>
+      <c r="D517" s="6">
+        <v>26.89</v>
+      </c>
+      <c r="E517" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="F517" s="6">
+        <v>6.04</v>
+      </c>
+      <c r="G517" s="6">
+        <v>4256.51</v>
+      </c>
+      <c r="H517" s="6">
+        <v>43.36</v>
+      </c>
+      <c r="I517" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="J517" s="6">
+        <v>57</v>
+      </c>
+      <c r="K517" s="6">
+        <v>57.31</v>
+      </c>
+      <c r="L517" s="6">
+        <v>41.13</v>
+      </c>
+      <c r="M517" s="6">
+        <v>0</v>
+      </c>
+      <c r="N517" s="6">
+        <v>36.64</v>
+      </c>
+      <c r="O517" s="6">
+        <v>48.95</v>
+      </c>
+      <c r="P517" s="6">
+        <v>86.03</v>
+      </c>
+      <c r="Q517" s="6">
+        <v>47.72</v>
+      </c>
+      <c r="R517" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="518" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A518" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B518" s="6">
+        <v>1375.95</v>
+      </c>
+      <c r="C518" s="6">
+        <v>237.51</v>
+      </c>
+      <c r="D518" s="6">
+        <v>24.16</v>
+      </c>
+      <c r="E518" s="6">
+        <v>57.45</v>
+      </c>
+      <c r="F518" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="G518" s="6">
+        <v>4136.0600000000004</v>
+      </c>
+      <c r="H518" s="6">
+        <v>10.98</v>
+      </c>
+      <c r="I518" s="6">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="J518" s="6">
+        <v>24.45</v>
+      </c>
+      <c r="K518" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="L518" s="6">
+        <v>19</v>
+      </c>
+      <c r="M518" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="N518" s="6">
+        <v>14</v>
+      </c>
+      <c r="O518" s="6">
+        <v>4.66</v>
+      </c>
+      <c r="P518" s="6">
+        <v>171.63</v>
+      </c>
+      <c r="Q518" s="6">
+        <v>112.93</v>
+      </c>
+      <c r="R518" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="519" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A519" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B519" s="6">
+        <v>240.9</v>
+      </c>
+      <c r="C519" s="6">
+        <v>339.06</v>
+      </c>
+      <c r="D519" s="6">
+        <v>28.04</v>
+      </c>
+      <c r="E519" s="6">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="F519" s="6">
+        <v>3.09</v>
+      </c>
+      <c r="G519" s="6">
+        <v>4006.89</v>
+      </c>
+      <c r="H519" s="6">
+        <v>14.05</v>
+      </c>
+      <c r="I519" s="6">
+        <v>10.76</v>
+      </c>
+      <c r="J519" s="6">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="K519" s="6">
+        <v>22.42</v>
+      </c>
+      <c r="L519" s="6">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="M519" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="N519" s="6">
+        <v>10.89</v>
+      </c>
+      <c r="O519" s="6">
+        <v>-2.58</v>
+      </c>
+      <c r="P519" s="6">
+        <v>140.1</v>
+      </c>
+      <c r="Q519" s="6">
+        <v>93.8</v>
+      </c>
+      <c r="R519" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="520" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A520" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B520" s="6">
+        <v>300.95</v>
+      </c>
+      <c r="C520" s="6">
+        <v>107.91</v>
+      </c>
+      <c r="D520" s="6">
+        <v>50.81</v>
+      </c>
+      <c r="E520" s="6">
+        <v>5.91</v>
+      </c>
+      <c r="F520" s="6">
+        <v>2.72</v>
+      </c>
+      <c r="G520" s="6">
+        <v>3688.66</v>
+      </c>
+      <c r="H520" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="I520" s="6">
+        <v>10.69</v>
+      </c>
+      <c r="J520" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="K520" s="6">
+        <v>17.12</v>
+      </c>
+      <c r="L520" s="6">
+        <v>15.48</v>
+      </c>
+      <c r="M520" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="N520" s="6">
+        <v>21.69</v>
+      </c>
+      <c r="O520" s="6">
+        <v>24.96</v>
+      </c>
+      <c r="P520" s="6">
+        <v>72.52</v>
+      </c>
+      <c r="Q520" s="6">
+        <v>50.26</v>
+      </c>
+      <c r="R520" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="521" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A521" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B521" s="6">
+        <v>1967.5</v>
+      </c>
+      <c r="C521" s="6">
+        <v>182.08</v>
+      </c>
+      <c r="D521" s="6">
+        <v>33.090000000000003</v>
+      </c>
+      <c r="E521" s="6">
+        <v>60.4</v>
+      </c>
+      <c r="F521" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="G521" s="6">
+        <v>3302.31</v>
+      </c>
+      <c r="H521" s="6">
+        <v>13.06</v>
+      </c>
+      <c r="I521" s="6">
+        <v>13.04</v>
+      </c>
+      <c r="J521" s="6">
+        <v>50.68</v>
+      </c>
+      <c r="K521" s="6">
+        <v>14.55</v>
+      </c>
+      <c r="L521" s="6">
+        <v>12.47</v>
+      </c>
+      <c r="M521" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="N521" s="6">
+        <v>15.95</v>
+      </c>
+      <c r="O521" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="P521" s="6">
+        <v>100.72</v>
+      </c>
+      <c r="Q521" s="6">
+        <v>68.31</v>
+      </c>
+      <c r="R521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A522" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B522" s="6">
+        <v>222.95</v>
+      </c>
+      <c r="C522" s="6">
+        <v>118.43</v>
+      </c>
+      <c r="D522" s="6">
+        <v>26.13</v>
+      </c>
+      <c r="E522" s="6">
+        <v>8.52</v>
+      </c>
+      <c r="F522" s="6">
+        <v>3.04</v>
+      </c>
+      <c r="G522" s="6">
+        <v>2470.7800000000002</v>
+      </c>
+      <c r="H522" s="6">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="I522" s="6">
+        <v>15.29</v>
+      </c>
+      <c r="J522" s="6">
+        <v>36.24</v>
+      </c>
+      <c r="K522" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="L522" s="6">
+        <v>13.66</v>
+      </c>
+      <c r="M522" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N522" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="O522" s="6">
+        <v>11.96</v>
+      </c>
+      <c r="P522" s="6">
+        <v>94.55</v>
+      </c>
+      <c r="Q522" s="6">
+        <v>38.81</v>
+      </c>
+      <c r="R522" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="523" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A523" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B523" s="6">
+        <v>13.98</v>
+      </c>
+      <c r="C523" s="6">
+        <v>451.65</v>
+      </c>
+      <c r="D523" s="6">
+        <v>26.49</v>
+      </c>
+      <c r="E523" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="F523" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G523" s="6">
+        <v>2467.62</v>
+      </c>
+      <c r="H523" s="6">
+        <v>2.29</v>
+      </c>
+      <c r="I523" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="J523" s="6">
+        <v>25.13</v>
+      </c>
+      <c r="K523" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="L523" s="6">
+        <v>2.76</v>
+      </c>
+      <c r="M523" s="6">
+        <v>0</v>
+      </c>
+      <c r="N523" s="6">
+        <v>4.92</v>
+      </c>
+      <c r="O523" s="6">
+        <v>-19.96</v>
+      </c>
+      <c r="P523" s="6">
+        <v>92.31</v>
+      </c>
+      <c r="Q523" s="6">
+        <v>-90.75</v>
+      </c>
+      <c r="R523" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="524" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A524" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B524" s="6">
+        <v>201.7</v>
+      </c>
+      <c r="C524" s="6">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="D524" s="6">
+        <v>69.59</v>
+      </c>
+      <c r="E524" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="F524" s="6">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G524" s="6">
+        <v>2180.17</v>
+      </c>
+      <c r="H524" s="6">
+        <v>10.97</v>
+      </c>
+      <c r="I524" s="6">
+        <v>8.16</v>
+      </c>
+      <c r="J524" s="6">
+        <v>30.87</v>
+      </c>
+      <c r="K524" s="6">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="L524" s="6">
+        <v>6.27</v>
+      </c>
+      <c r="M524" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="N524" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="O524" s="6">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="P524" s="6">
+        <v>30.15</v>
+      </c>
+      <c r="Q524" s="6">
+        <v>10.37</v>
+      </c>
+      <c r="R524" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="525" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A525" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B525" s="6">
+        <v>341.15</v>
+      </c>
+      <c r="C525" s="6">
+        <v>170.85</v>
+      </c>
+      <c r="D525" s="6">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E525" s="6">
+        <v>69.14</v>
+      </c>
+      <c r="F525" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="G525" s="6">
+        <v>2133.64</v>
+      </c>
+      <c r="H525" s="6">
+        <v>10.53</v>
+      </c>
+      <c r="I525" s="6">
+        <v>14.59</v>
+      </c>
+      <c r="J525" s="6">
+        <v>6.73</v>
+      </c>
+      <c r="K525" s="6">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="L525" s="6">
+        <v>13.42</v>
+      </c>
+      <c r="M525" s="6">
+        <v>3.71</v>
+      </c>
+      <c r="N525" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O525" s="6">
+        <v>10.96</v>
+      </c>
+      <c r="P525" s="6">
+        <v>432.57</v>
+      </c>
+      <c r="Q525" s="6">
+        <v>-49.3</v>
+      </c>
+      <c r="R525" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="526" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A526" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B526" s="6">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="C526" s="6">
+        <v>650.07000000000005</v>
+      </c>
+      <c r="D526" s="6">
+        <v>7.65</v>
+      </c>
+      <c r="E526" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="F526" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="G526" s="6">
+        <v>1626.38</v>
+      </c>
+      <c r="H526" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="I526" s="6">
+        <v>6.42</v>
+      </c>
+      <c r="J526" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="K526" s="6">
+        <v>3.63</v>
+      </c>
+      <c r="L526" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="M526" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N526" s="6">
+        <v>-2.17</v>
+      </c>
+      <c r="O526" s="6">
+        <v>33.19</v>
+      </c>
+      <c r="P526" s="6">
+        <v>213.92</v>
+      </c>
+      <c r="Q526" s="6">
+        <v>23.32</v>
+      </c>
+      <c r="R526" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="527" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A527" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B527" s="6">
+        <v>146.94999999999999</v>
+      </c>
+      <c r="C527" s="6">
+        <v>356.85</v>
+      </c>
+      <c r="D527" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="E527" s="6">
+        <v>26.47</v>
+      </c>
+      <c r="F527" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="G527" s="6">
+        <v>1622.73</v>
+      </c>
+      <c r="H527" s="6">
+        <v>16.63</v>
+      </c>
+      <c r="I527" s="6">
+        <v>21.65</v>
+      </c>
+      <c r="J527" s="6">
+        <v>5.59</v>
+      </c>
+      <c r="K527" s="6">
+        <v>10.88</v>
+      </c>
+      <c r="L527" s="6">
+        <v>7.61</v>
+      </c>
+      <c r="M527" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="N527" s="6">
+        <v>9.14</v>
+      </c>
+      <c r="O527" s="6">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="P527" s="6">
+        <v>292.45</v>
+      </c>
+      <c r="Q527" s="6">
+        <v>-137.29</v>
+      </c>
+      <c r="R527" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="528" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A528" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B528" s="6">
+        <v>472.05</v>
+      </c>
+      <c r="C528" s="6">
+        <v>78.88</v>
+      </c>
+      <c r="D528" s="6">
+        <v>75.47</v>
+      </c>
+      <c r="E528" s="6">
+        <v>7.14</v>
+      </c>
+      <c r="F528" s="6">
+        <v>3.05</v>
+      </c>
+      <c r="G528" s="6">
+        <v>1307.67</v>
+      </c>
+      <c r="H528" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I528" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="J528" s="6">
+        <v>109.41</v>
+      </c>
+      <c r="K528" s="6">
+        <v>4.38</v>
+      </c>
+      <c r="L528" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="M528" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N528" s="6">
+        <v>-4.59</v>
+      </c>
+      <c r="O528" s="6">
+        <v>-34.909999999999997</v>
+      </c>
+      <c r="P528" s="6">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="Q528" s="6">
+        <v>-1.92</v>
+      </c>
+      <c r="R528" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="529" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A529" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B529" s="6">
+        <v>118.95</v>
+      </c>
+      <c r="C529" s="6">
+        <v>149.13999999999999</v>
+      </c>
+      <c r="D529" s="6">
+        <v>6.01</v>
+      </c>
+      <c r="E529" s="6">
+        <v>19.73</v>
+      </c>
+      <c r="F529" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="G529" s="6">
+        <v>1260.6199999999999</v>
+      </c>
+      <c r="H529" s="6">
+        <v>8.49</v>
+      </c>
+      <c r="I529" s="6">
+        <v>12.74</v>
+      </c>
+      <c r="J529" s="6">
+        <v>10.44</v>
+      </c>
+      <c r="K529" s="6">
+        <v>6.82</v>
+      </c>
+      <c r="L529" s="6">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="M529" s="6">
+        <v>5.66</v>
+      </c>
+      <c r="N529" s="6">
+        <v>24.55</v>
+      </c>
+      <c r="O529" s="6">
+        <v>19.02</v>
+      </c>
+      <c r="P529" s="6">
+        <v>209.59</v>
+      </c>
+      <c r="Q529" s="6">
+        <v>96.83</v>
+      </c>
+      <c r="R529" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="530" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A530" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B530" s="6">
+        <v>367.9</v>
+      </c>
+      <c r="C530" s="6">
+        <v>106.33</v>
+      </c>
+      <c r="D530" s="6">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="E530" s="6">
+        <v>19.61</v>
+      </c>
+      <c r="F530" s="6">
+        <v>2</v>
+      </c>
+      <c r="G530" s="6">
+        <v>1148.55</v>
+      </c>
+      <c r="H530" s="6">
+        <v>12.89</v>
+      </c>
+      <c r="I530" s="6">
+        <v>10.29</v>
+      </c>
+      <c r="J530" s="6">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="K530" s="6">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="L530" s="6">
+        <v>8.32</v>
+      </c>
+      <c r="M530" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N530" s="6">
+        <v>45.42</v>
+      </c>
+      <c r="O530" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="P530" s="6">
+        <v>61.22</v>
+      </c>
+      <c r="Q530" s="6">
+        <v>-85.27</v>
+      </c>
+      <c r="R530" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="531" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A531" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B531" s="6">
+        <v>275.14999999999998</v>
+      </c>
+      <c r="C531" s="6">
+        <v>623.61</v>
+      </c>
+      <c r="D531" s="6"/>
+      <c r="E531" s="6">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="F531" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="G531" s="6">
+        <v>761.26</v>
+      </c>
+      <c r="H531" s="6">
+        <v>1.07</v>
+      </c>
+      <c r="I531" s="6">
+        <v>-0.91</v>
+      </c>
+      <c r="J531" s="6">
+        <v>20.45</v>
+      </c>
+      <c r="K531" s="6">
+        <v>21.02</v>
+      </c>
+      <c r="L531" s="6">
+        <v>16.03</v>
+      </c>
+      <c r="M531" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N531" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="O531" s="6"/>
+      <c r="P531" s="6">
+        <v>-27.82</v>
+      </c>
+      <c r="Q531" s="6">
+        <v>184.05</v>
+      </c>
+      <c r="R531" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="532" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A532" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B532" s="6">
+        <v>46.25</v>
+      </c>
+      <c r="C532" s="6">
+        <v>744.91</v>
+      </c>
+      <c r="D532" s="6">
+        <v>382.7</v>
+      </c>
+      <c r="E532" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="F532" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="G532" s="6">
+        <v>677.37</v>
+      </c>
+      <c r="H532" s="6">
+        <v>1.23</v>
+      </c>
+      <c r="I532" s="6">
+        <v>-0.91</v>
+      </c>
+      <c r="J532" s="6">
+        <v>24.18</v>
+      </c>
+      <c r="K532" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="L532" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="M532" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="N532" s="6">
+        <v>5.22</v>
+      </c>
+      <c r="O532" s="6"/>
+      <c r="P532" s="6">
+        <v>-1.35</v>
+      </c>
+      <c r="Q532" s="6">
+        <v>-125.63</v>
+      </c>
+      <c r="R532" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="533" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A533" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B533" s="6">
+        <v>21.38</v>
+      </c>
+      <c r="C533" s="6">
+        <v>1653.51</v>
+      </c>
+      <c r="D533" s="6">
+        <v>11.85</v>
+      </c>
+      <c r="E533" s="6">
+        <v>-15.51</v>
+      </c>
+      <c r="F533" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="G533" s="6">
+        <v>449.64</v>
+      </c>
+      <c r="H533" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="I533" s="6">
+        <v>3.36</v>
+      </c>
+      <c r="J533" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="K533" s="6">
+        <v>-1.36</v>
+      </c>
+      <c r="L533" s="6">
+        <v>-4.97</v>
+      </c>
+      <c r="M533" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="N533" s="6">
+        <v>-22.44</v>
+      </c>
+      <c r="O533" s="6">
+        <v>13.55</v>
+      </c>
+      <c r="P533" s="6">
+        <v>-325.45</v>
+      </c>
+      <c r="Q533" s="6">
+        <v>94.69</v>
+      </c>
+      <c r="R533" t="s">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q501" xr:uid="{6164CDE3-046E-43C8-9EE6-7E92FB2F1F9C}"/>
+  <autoFilter ref="A1:Q500" xr:uid="{6164CDE3-046E-43C8-9EE6-7E92FB2F1F9C}"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.screener.in/screen/raw/?sort=name&amp;order=desc&amp;source_id=&amp;query=Market+capitalization+%3E+1000+%0D%0A&amp;latest=on" xr:uid="{B0174230-C519-422C-9144-055BEF98A095}"/>
     <hyperlink ref="B1" r:id="rId2" display="https://www.screener.in/screen/raw/?sort=current+price&amp;order=desc&amp;source_id=&amp;query=Market+capitalization+%3E+1000+%0D%0A&amp;latest=on" xr:uid="{D021D9D0-B701-476E-8E8D-F35921262658}"/>
@@ -60436,7 +62221,39 @@
     <hyperlink ref="A498" r:id="rId514" display="https://www.screener.in/company/AMIORG/consolidated/" xr:uid="{EA910CC4-6B90-491C-84D3-4A46D2C54973}"/>
     <hyperlink ref="A499" r:id="rId515" display="https://www.screener.in/company/SBFC/" xr:uid="{7355BBB8-3509-4A6F-A3F2-2A378C56858F}"/>
     <hyperlink ref="A500" r:id="rId516" display="https://www.screener.in/company/TTKPRESTIG/consolidated/" xr:uid="{61A82853-8D04-475E-97A9-D23C595A4954}"/>
-    <hyperlink ref="A501" r:id="rId517" display="https://www.screener.in/company/USHAMART/consolidated/" xr:uid="{C7B02450-A9E3-4266-AC1D-33F34F8A3E0F}"/>
+    <hyperlink ref="A501" r:id="rId517" display="https://www.screener.in/company/JPPOWER/consolidated/" xr:uid="{C72FC20C-0489-41DE-A853-98806722FD4C}"/>
+    <hyperlink ref="A502" r:id="rId518" display="https://www.screener.in/company/QUESS/consolidated/" xr:uid="{3C34B035-A300-46E9-ADCE-3FCAEC50178A}"/>
+    <hyperlink ref="A503" r:id="rId519" display="https://www.screener.in/company/CAMPUS/" xr:uid="{96587757-A245-4E30-9510-9A822707CD50}"/>
+    <hyperlink ref="A504" r:id="rId520" display="https://www.screener.in/company/METROPOLIS/consolidated/" xr:uid="{577EB267-D39F-4C8D-B834-D22160D7BFE7}"/>
+    <hyperlink ref="A505" r:id="rId521" display="https://www.screener.in/company/ALKYLAMINE/" xr:uid="{22E36E15-C03E-4498-999A-CDD9D65243A4}"/>
+    <hyperlink ref="A506" r:id="rId522" display="https://www.screener.in/company/SFL/consolidated/" xr:uid="{A7F747FB-3EEF-4355-994C-3D26AFBD0C2A}"/>
+    <hyperlink ref="A507" r:id="rId523" display="https://www.screener.in/company/CERA/" xr:uid="{1D72E7D7-EF71-4401-95A9-DDB0282793D1}"/>
+    <hyperlink ref="A508" r:id="rId524" display="https://www.screener.in/company/TANLA/consolidated/" xr:uid="{4F543975-6B0A-4308-A621-56F6996E49A7}"/>
+    <hyperlink ref="A509" r:id="rId525" display="https://www.screener.in/company/ROUTE/consolidated/" xr:uid="{9983739E-9A42-4D2D-9CAE-FA1C630C25FC}"/>
+    <hyperlink ref="A510" r:id="rId526" display="https://www.screener.in/company/UJJIVANSFB/" xr:uid="{B0336B8C-C5C4-4B73-BCEA-A5845BE18906}"/>
+    <hyperlink ref="A511" r:id="rId527" display="https://www.screener.in/company/RAJESHEXPO/consolidated/" xr:uid="{F7779623-FDB2-49E5-B5E4-3BA0A0ACB883}"/>
+    <hyperlink ref="A512" r:id="rId528" display="https://www.screener.in/company/INDIGOPNTS/" xr:uid="{16E2D708-1412-4D59-A51A-CD09CB845E69}"/>
+    <hyperlink ref="A513" r:id="rId529" display="https://www.screener.in/company/SIS/consolidated/" xr:uid="{3D36C2A8-29C9-473E-BC6E-AAC77E0E8854}"/>
+    <hyperlink ref="A514" r:id="rId530" display="https://www.screener.in/company/VIPIND/consolidated/" xr:uid="{3A38EDD8-35B6-4E26-BB63-78815FCCD3EA}"/>
+    <hyperlink ref="A515" r:id="rId531" display="https://www.screener.in/company/JCHAC/" xr:uid="{BA53AA6D-06F3-4B6C-9AE4-D242E1EE1BC9}"/>
+    <hyperlink ref="A516" r:id="rId532" display="https://www.screener.in/company/MASFIN/consolidated/" xr:uid="{A5CCAAF4-5EEF-4151-8ED0-3C94A4E071B9}"/>
+    <hyperlink ref="A517" r:id="rId533" display="https://www.screener.in/company/EASEMYTRIP/" xr:uid="{E84461DF-5C39-42E1-852B-5D0AE20A7C7E}"/>
+    <hyperlink ref="A518" r:id="rId534" display="https://www.screener.in/company/LUXIND/consolidated/" xr:uid="{342CE7F4-5020-4C81-9F43-042C5D50E578}"/>
+    <hyperlink ref="A519" r:id="rId535" display="https://www.screener.in/company/VAIBHAVGBL/consolidated/" xr:uid="{A1C34EA0-9FDE-40D9-BE14-DF68A0FF7522}"/>
+    <hyperlink ref="A520" r:id="rId536" display="https://www.screener.in/company/GREENPANEL/" xr:uid="{DCB42C90-FC2C-4957-8940-C993875830C9}"/>
+    <hyperlink ref="A521" r:id="rId537" display="https://www.screener.in/company/TEAMLEASE/consolidated/" xr:uid="{74C7F771-9F4F-46CA-82AD-3CF65FD32B0E}"/>
+    <hyperlink ref="A522" r:id="rId538" display="https://www.screener.in/company/LAOPALA/" xr:uid="{EE39ADF7-150E-4E08-89A0-8B8133611870}"/>
+    <hyperlink ref="A523" r:id="rId539" display="https://www.screener.in/company/HATHWAY/consolidated/" xr:uid="{9541BD2D-BF78-4731-AF8E-391C6DBC5AB4}"/>
+    <hyperlink ref="A524" r:id="rId540" display="https://www.screener.in/company/SHALBY/consolidated/" xr:uid="{6477BFA0-DF71-49B3-BD35-DFC1F17D3A3C}"/>
+    <hyperlink ref="A525" r:id="rId541" display="https://www.screener.in/company/REPCOHOME/" xr:uid="{E3835725-9239-4D61-B671-8E2BFA1BCE5F}"/>
+    <hyperlink ref="A526" r:id="rId542" display="https://www.screener.in/company/DEN/consolidated/" xr:uid="{43FE503E-60D5-4784-BBF5-695D0636C516}"/>
+    <hyperlink ref="A527" r:id="rId543" display="https://www.screener.in/company/SATIN/consolidated/" xr:uid="{48C1FF26-877E-471C-903E-B6600AF22D5F}"/>
+    <hyperlink ref="A528" r:id="rId544" display="https://www.screener.in/company/ATULAUTO/consolidated/" xr:uid="{E2E70388-8691-48A7-9D35-5715E5365017}"/>
+    <hyperlink ref="A529" r:id="rId545" display="https://www.screener.in/company/SURYODAY/" xr:uid="{6D52B163-24F6-4E12-8802-BC388BC634E1}"/>
+    <hyperlink ref="A530" r:id="rId546" display="https://www.screener.in/company/5PAISA/" xr:uid="{641653AA-3751-47BD-BC9C-4A46F8C3DE3D}"/>
+    <hyperlink ref="A531" r:id="rId547" display="https://www.screener.in/company/VALIANTORG/consolidated/" xr:uid="{E707A23B-7B42-4F1D-90C1-6FC7C3241EB9}"/>
+    <hyperlink ref="A532" r:id="rId548" display="https://www.screener.in/company/ASIANTILES/consolidated/" xr:uid="{96107905-B56D-4C37-A771-3F44A86DBB4A}"/>
+    <hyperlink ref="A533" r:id="rId549" display="https://www.screener.in/company/COFFEEDAY/consolidated/" xr:uid="{648B5D0D-CFB3-4546-9100-3D9A8A5F3125}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
